--- a/1-1/C프로그래밍_기출.xlsx
+++ b/1-1/C프로그래밍_기출.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA507BE-792A-475C-80F6-6AA15729C4CD}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7B7B82-FC5E-4EAA-8E80-0684B920D9F0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6348" yWindow="8604" windowWidth="16980" windowHeight="17808" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$B$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -892,6 +892,1008 @@
         <charset val="129"/>
       </rPr>
       <t>함수는 새로운 영역에 기억공간을 재할당하게 되면, 기존의 기억공간에 있던 자료 복사 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gets(s), puts(s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOXO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float *fptr;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fptr=&amp;var1;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">출력양식 변환 기호
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>%d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는 출력 값을 지수형식으로 나타냄. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>%f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는 출력 값을 부동 소수점 형식으로 나타냄. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>%o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는 출력 값을 8진수로 나타냄. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>%x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는 출력 값을 16진수로 나타냄. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">프로그램의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 올바른 것은?
+1) b=1, c=0
+2) b=4, c=1
+3) b=0, c=1
+4) b=1, c=4
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include&lt;stdio.h&gt;
+void main(){
+ char s[50];
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(ㄱ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(ㄴ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>;
+}
+문자열 자료를 입력 받기 위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 표준 입력함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (ㄱ)과 출력하기 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표준 출력함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (ㄴ)은?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 대한 설명
+- 하나의 프로그램에서 반드시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>main()함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 쓸 필요는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 함수를 호출할 때 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>괄호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 생략해서는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 됨. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 되돌려 줄 자료가 없을 때는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- C 언어에서 함수는 서로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 대한 설명
+- 모든 배열은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기억 클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 갖음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 배열의 각 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 변수처럼 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 증가시키거나 감소킬 수 있음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 배열명은 배열 공간의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시작주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 가리킴. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실수형 포인터 변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> fptr을 선언할 경우 올바른 표현은?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">float var1, var2;
+var1=3.14;
+포인터 변수 fptr에 var1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 방법은?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>빈칸 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)에 들어갈 내용으로 올바른 것은?
+1) fclose(fp)
+2) fopen(fp)
+3) END
+4) stderr
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동적할당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 대한 설명
+- 동적할당은 실행중 필요한 만큼 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기억공간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 배열의 경우 동적할당을 사용하여 배열의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결정 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 동적할당은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정수형 자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 대해서만 가능함. (</t>
     </r>
     <r>
       <rPr>
@@ -1294,6 +2296,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3074506</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1003633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C55188-632C-0FA6-6D35-CF90DA45E42E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4850297" y="1378680"/>
+          <a:ext cx="1497495" cy="963423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4128053</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6054502</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1431235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63101726-F74A-44F9-4B23-525F34D23863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5903844" y="7227373"/>
+          <a:ext cx="1926449" cy="1399792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1632,7 +2727,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A14" ca="1" si="0">RAND()</f>
-        <v>6.9025258058574623E-2</v>
+        <v>0.9086929878127098</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
@@ -1654,7 +2749,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35308035719428066</v>
+        <v>4.1783106139688497E-2</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1676,7 +2771,7 @@
     <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7862417562172852</v>
+        <v>0.83174771683543725</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1698,7 +2793,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61893494316033082</v>
+        <v>3.9322442484020059E-2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1720,7 +2815,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79906521394952523</v>
+        <v>7.9319756365740401E-2</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1742,7 +2837,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88619872504520092</v>
+        <v>0.57959411350397183</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1764,7 +2859,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52014731553618843</v>
+        <v>0.8211097478397944</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1786,7 +2881,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49968341663942328</v>
+        <v>0.99087826852763683</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9" si="2">IF(C9=D9,"O","X")</f>
@@ -1808,7 +2903,7 @@
     <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73327992334550551</v>
+        <v>0.5886341310438149</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1830,7 +2925,7 @@
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83897590297436819</v>
+        <v>0.20938029760085364</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1852,7 +2947,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25886783217451781</v>
+        <v>0.82532517159531449</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1874,7 +2969,7 @@
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6470245349085477E-2</v>
+        <v>0.39027462936924839</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1896,7 +2991,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65875778618343728</v>
+        <v>0.83596968609110078</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1933,10 +3028,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1968,231 +3063,209 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A14" ca="1" si="0">RAND()</f>
-        <v>0.77263351464710017</v>
+        <f t="shared" ref="A2:A10" ca="1" si="0">RAND()</f>
+        <v>0.97550696568006134</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
-        <v>O</v>
-      </c>
-      <c r="E2" s="3"/>
+        <f t="shared" ref="B2:B10" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F2" s="1">
         <v>2018</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3551472749768441E-2</v>
+        <v>0.71751201497296857</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" s="1">
         <v>2018</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31264476915766792</v>
+        <v>0.65491915145513624</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="1">
         <v>2018</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73581509446105731</v>
+        <v>0.83428830463804249</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="1">
         <v>2018</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9678885920462702</v>
+        <v>0.562706003631957</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="1">
         <v>2018</v>
       </c>
       <c r="G6" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82486518535157638</v>
+        <v>2.0704223085407536E-2</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="1">
         <v>2018</v>
       </c>
       <c r="G7" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69224811683897358</v>
+        <v>0.66658385533670206</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="1">
         <v>2018</v>
       </c>
       <c r="G8" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55349663440591346</v>
+        <v>0.12223071382259665</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="1">
         <v>2018</v>
       </c>
       <c r="G9" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83514587324660161</v>
+        <v>0.49277344961193903</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="1">
         <v>2018</v>
       </c>
       <c r="G10" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4650419034508539E-2</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94879182598571332</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G12" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2321587707845274</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G13" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15490539986617957</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G14" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B14" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <autoFilter ref="B1:B10" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1-1/C프로그래밍_기출.xlsx
+++ b/1-1/C프로그래밍_기출.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7B7B82-FC5E-4EAA-8E80-0684B920D9F0}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB0497-594B-4C1F-A4FB-531C57C452E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017'!$B$1:$B$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$B$1:$B$14</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1894,6 +1896,397 @@
         <charset val="129"/>
       </rPr>
       <t>에 대해서만 가능함. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로그램 결과는?
+1) A+2, K+2
+2) B, L
+3) A+2, K
+4) C, L
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자 정의 명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 가능한 것은?
+1) For
+2) 2knou
+3) int
+4) OUN TV
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include&lt;stdio.h&gt;
+void main() {
+ int a, b, c, result;
+ a=10, b=20, c=30;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>result=-a*b/5+c%7;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+위의 코드에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표준함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 대한 설명
+- 표준함수의 원형은 헤더파일에 선언됨. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 표준함수의 실체는 라이브러리 파일에 수록됨. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 표준함수를 사용하기 위해서는 원형과 실체가 알려져 있어야 함. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 표준함수를 사용하기 위해서는 표준함수의 헤더파일을 #define 시켜야 함. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세 개의 매개변수가 각각 문자형, 정수형, 실수형 변수 a1, a2, a3를 갖고, 배정도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실수형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 자료를 되돌려주는 함수 fcm에 대한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수 헤더 정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1) int fcn(int a1, int a2, int a3)
+2) int fcn(char a1, int a2, float a3)
+3) double fcn(int a1, int a2, int a3)
+4) double fcn(char a1, int a2, float a3)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)에 들어갈 내용
+1) stdout
+2) stdin
+3) stderr
+4) stdio
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기억공간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 대한 설명
+- 메모리 동적할당을 위해 프로그래머가 사용하는 영역 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 힙의 공간 할당은 memset()등의 함수로 할당받을 수 있음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 할당받은 힙 공간은 사용이 끝나면 자동으로 해제되지 않음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 프로그램 실행 중에 필요한 만큼의 공간을 할당받을 때 사용되는 메모리 영역 (</t>
     </r>
     <r>
       <rPr>
@@ -2389,6 +2782,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2835965</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4171102</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1027042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE00AFDC-9E17-729A-EFBD-D259A905E164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4611756" y="2827014"/>
+          <a:ext cx="1335137" cy="1002863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2802835</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4706300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1431235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06CA525-02F7-2906-00F9-28932837C064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4578626" y="6155635"/>
+          <a:ext cx="1903465" cy="1378226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2691,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -2727,7 +3213,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A14" ca="1" si="0">RAND()</f>
-        <v>0.9086929878127098</v>
+        <v>0.90144249469981219</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
@@ -2749,7 +3235,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1783106139688497E-2</v>
+        <v>0.25311288965429191</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2771,7 +3257,7 @@
     <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83174771683543725</v>
+        <v>0.36032949404032044</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2793,7 +3279,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9322442484020059E-2</v>
+        <v>4.6910729581511434E-2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2815,7 +3301,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9319756365740401E-2</v>
+        <v>0.45344798994889213</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2837,7 +3323,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57959411350397183</v>
+        <v>0.73030466256993254</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2859,7 +3345,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8211097478397944</v>
+        <v>0.43153849612111483</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2881,7 +3367,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99087826852763683</v>
+        <v>0.57983320648892134</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9" si="2">IF(C9=D9,"O","X")</f>
@@ -2903,7 +3389,7 @@
     <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5886341310438149</v>
+        <v>0.4608243594937188</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2925,7 +3411,7 @@
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20938029760085364</v>
+        <v>0.55453410609373877</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2947,7 +3433,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82532517159531449</v>
+        <v>0.75368251698359978</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2969,14 +3455,14 @@
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39027462936924839</v>
+        <v>9.3084262263812501E-2</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -2991,7 +3477,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83596968609110078</v>
+        <v>0.2550105498207198</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3030,8 +3516,8 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -3066,7 +3552,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A10" ca="1" si="0">RAND()</f>
-        <v>0.97550696568006134</v>
+        <v>7.3602774807177362E-2</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B10" si="1">IF(C2=D2,"O","X")</f>
@@ -3088,7 +3574,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71751201497296857</v>
+        <v>0.10172052028865586</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3110,7 +3596,7 @@
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65491915145513624</v>
+        <v>0.93354270903537462</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3132,7 +3618,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83428830463804249</v>
+        <v>0.52707965152795966</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3154,7 +3640,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.562706003631957</v>
+        <v>0.7096034635699483</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3176,7 +3662,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0704223085407536E-2</v>
+        <v>0.86667855143146333</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3198,7 +3684,7 @@
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66658385533670206</v>
+        <v>3.2831549951527261E-2</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3220,7 +3706,7 @@
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12223071382259665</v>
+        <v>0.74483711981584166</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3242,7 +3728,7 @@
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49277344961193903</v>
+        <v>0.57145470612971405</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3268,4 +3754,208 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400F6229-C79D-4011-99B3-520F1DD082E3}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A8" ca="1" si="0">RAND()</f>
+        <v>0.23564673213071041</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B8" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.774318759763001E-2</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2">
+        <f>-(10*20)/5+2</f>
+        <v>-38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42852292168489503</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93706284966075437</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0109890733026177E-2</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98154468032262754</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13391904802407317</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G8" s="3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B8" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/1-1/C프로그래밍_기출.xlsx
+++ b/1-1/C프로그래밍_기출.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB0497-594B-4C1F-A4FB-531C57C452E8}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{4D8E50F9-A6B1-4D24-B350-C45159AECF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC88833-8B4F-4E98-929B-1A95283E77AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2017" sheetId="3" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2016'!$B$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017'!$B$1:$B$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$B$1:$B$14</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2307,6 +2309,353 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, 90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C 프로그램 완성 과정의 순서 나열
+(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>링킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, (4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴파일링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선행처리기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명
+- 반드시 #으로 시작 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 명령문 끝에는 세미콜론(;) 붙임. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 한 줄에 하나의 명령문만 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 선행처리 문자열이 한 줄을 넘어설 때는 \를 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include &lt;stdio.h&gt;
+void main() {
+ int *p, *1;
+ int a[]={10,20,30,40,50,60,70,80,90,100};
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p=&amp;a[4];</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> q=p+3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+위 코드에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> p-q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#include &lt;stdio.h&gt;
+void main() {
+ static a[3][3]={{10,20,30},{40,50,60},{70,80,90}};
+ int *pt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> pt=a[1];</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*pt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> *(pt+5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 값은?
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3213,7 +3562,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A14" ca="1" si="0">RAND()</f>
-        <v>0.90144249469981219</v>
+        <v>0.91515308447719601</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
@@ -3235,7 +3584,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25311288965429191</v>
+        <v>0.5981532264725592</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3257,7 +3606,7 @@
     <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36032949404032044</v>
+        <v>7.8096482457799765E-2</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3279,7 +3628,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6910729581511434E-2</v>
+        <v>0.1074493536985176</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3301,7 +3650,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45344798994889213</v>
+        <v>0.95737365386593998</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3323,7 +3672,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73030466256993254</v>
+        <v>0.75299470572043048</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3345,7 +3694,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43153849612111483</v>
+        <v>0.274864626055632</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3367,7 +3716,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57983320648892134</v>
+        <v>0.99534807132224123</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9" si="2">IF(C9=D9,"O","X")</f>
@@ -3389,7 +3738,7 @@
     <row r="10" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4608243594937188</v>
+        <v>0.20418102024911955</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3411,7 +3760,7 @@
     <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55453410609373877</v>
+        <v>4.5853828688169562E-2</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +3782,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75368251698359978</v>
+        <v>0.67392176570405526</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3455,7 +3804,7 @@
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3084262263812501E-2</v>
+        <v>0.73443013984011607</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3477,7 +3826,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2550105498207198</v>
+        <v>0.854351828015392</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3552,7 +3901,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A10" ca="1" si="0">RAND()</f>
-        <v>7.3602774807177362E-2</v>
+        <v>0.60516048460253502</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B10" si="1">IF(C2=D2,"O","X")</f>
@@ -3574,7 +3923,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10172052028865586</v>
+        <v>0.7473121791119075</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3596,7 +3945,7 @@
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93354270903537462</v>
+        <v>0.89442232023573931</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3618,7 +3967,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52707965152795966</v>
+        <v>0.14522159253093669</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3640,7 +3989,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7096034635699483</v>
+        <v>0.73651118132097326</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3662,7 +4011,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86667855143146333</v>
+        <v>0.7803231446280553</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3684,7 +4033,7 @@
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2831549951527261E-2</v>
+        <v>8.9630724145829399E-3</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3706,7 +4055,7 @@
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74483711981584166</v>
+        <v>0.99847462702178047</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3728,7 +4077,7 @@
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57145470612971405</v>
+        <v>4.7448913863893494E-2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3763,7 +4112,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3799,7 +4148,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A8" ca="1" si="0">RAND()</f>
-        <v>0.23564673213071041</v>
+        <v>0.6206168163998762</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B8" si="1">IF(C2=D2,"O","X")</f>
@@ -3821,7 +4170,7 @@
     <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.774318759763001E-2</v>
+        <v>0.29672716919777908</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3844,7 +4193,7 @@
     <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42852292168489503</v>
+        <v>0.38390323703903895</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3866,7 +4215,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93706284966075437</v>
+        <v>0.3808064341340196</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3888,7 +4237,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0109890733026177E-2</v>
+        <v>0.90476978978401856</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3910,7 +4259,7 @@
     <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98154468032262754</v>
+        <v>0.19978227405229121</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3932,7 +4281,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13391904802407317</v>
+        <v>0.27870892256688695</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3958,4 +4307,140 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254C61D6-1952-4CFD-B9B9-C386DF268F71}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A5" ca="1" si="0">RAND()</f>
+        <v>0.21620121371239742</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B5" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1432</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9816454976495903</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G3" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76785551569125754</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13097007304396446</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G5" s="3">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B5" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>